--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/tracks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104823A11D487E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF3AB56-5112-497A-8217-28F94E7C8719}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104823A11D487E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5F5CCE-3E05-41DB-875A-3EB3434447AC}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,13 +321,13 @@
     <t>84, 86</t>
   </si>
   <si>
-    <t>Initial Next Block</t>
-  </si>
-  <si>
     <t>86, 100</t>
   </si>
   <si>
     <t>29, 30, 149</t>
+  </si>
+  <si>
+    <t>Initial Next Blocks</t>
   </si>
 </sst>
 </file>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +745,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>67</v>
@@ -4412,7 +4412,7 @@
         <v>33</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>97</v>
@@ -7198,7 +7198,7 @@
         <v>20</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I151" s="3">
         <v>29</v>

--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/lines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabella\Trains\train_system\system_data\lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104823A11D487E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5F5CCE-3E05-41DB-875A-3EB3434447AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FB28F-EA6D-4A7A-9007-51DBB235B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="107">
   <si>
     <t>Section</t>
   </si>
@@ -328,6 +339,24 @@
   </si>
   <si>
     <t>Initial Next Blocks</t>
+  </si>
+  <si>
+    <t>Railway Crossing</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Switch Position</t>
+  </si>
+  <si>
+    <t>Light Signal</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -337,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +403,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2B91AF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +456,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,25 +743,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:R154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -765,8 +808,17 @@
       <c r="O1" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -787,6 +839,9 @@
       </c>
       <c r="G2" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="H2" s="3">
+        <v>13</v>
       </c>
       <c r="I2" s="3">
         <v>13</v>
@@ -803,8 +858,17 @@
         <f t="shared" ref="O2:O33" si="1">D2*(1/(F2*1000/(60*60)))</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -853,8 +917,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A67" si="3">A3</f>
         <v>Green</v>
@@ -894,8 +967,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -935,8 +1017,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -976,8 +1067,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1017,8 +1117,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1059,8 +1168,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1100,8 +1218,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1150,8 +1277,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1191,8 +1327,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1232,8 +1377,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1255,6 +1409,9 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="H13" s="3">
+        <v>13</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
@@ -1275,8 +1432,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1317,8 +1483,17 @@
         <f t="shared" si="1"/>
         <v>7.7142857142857153</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1358,8 +1533,17 @@
         <f t="shared" si="1"/>
         <v>7.7142857142857153</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1399,8 +1583,17 @@
         <f t="shared" si="1"/>
         <v>7.7142857142857153</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1449,8 +1642,17 @@
         <f t="shared" si="1"/>
         <v>7.7142857142857153</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1490,8 +1692,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1531,8 +1742,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1575,8 +1795,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1616,8 +1845,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1657,8 +1895,17 @@
         <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1707,8 +1954,17 @@
         <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1748,8 +2004,17 @@
         <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1789,8 +2054,17 @@
         <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1830,8 +2104,17 @@
         <f t="shared" si="1"/>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1871,8 +2154,17 @@
         <f t="shared" si="1"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1912,8 +2204,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1953,8 +2254,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1998,8 +2308,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2021,6 +2340,9 @@
       </c>
       <c r="G31" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="H31" s="3">
+        <v>30</v>
       </c>
       <c r="I31" s="3">
         <f>C32</f>
@@ -2038,8 +2360,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2088,8 +2419,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2129,8 +2469,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2170,8 +2519,17 @@
         <f t="shared" ref="O34:O65" si="11">D34*(1/(F34*1000/(60*60)))</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2211,8 +2569,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2252,8 +2619,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2296,8 +2672,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -2340,8 +2725,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2384,8 +2778,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2434,8 +2837,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2478,8 +2890,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2522,8 +2943,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2566,8 +2996,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2610,8 +3049,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2654,8 +3102,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2698,8 +3155,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2742,8 +3208,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2786,8 +3261,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2836,8 +3320,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2880,8 +3373,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2924,8 +3426,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2968,8 +3479,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3012,8 +3532,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3056,8 +3585,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3100,8 +3638,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3144,8 +3691,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3188,8 +3744,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3241,8 +3806,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3266,6 +3840,9 @@
         <f t="shared" si="8"/>
         <v>57, 59</v>
       </c>
+      <c r="H59" s="3">
+        <v>57</v>
+      </c>
       <c r="I59" s="3">
         <f t="shared" si="9"/>
         <v>59</v>
@@ -3285,8 +3862,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3326,8 +3912,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>102</v>
+      </c>
+      <c r="R60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3367,8 +3962,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3408,8 +4012,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P62" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3433,6 +4046,9 @@
         <f t="shared" si="8"/>
         <v>61, 63</v>
       </c>
+      <c r="H63" s="3">
+        <v>63</v>
+      </c>
       <c r="I63" s="3">
         <f t="shared" si="9"/>
         <v>63</v>
@@ -3452,8 +4068,17 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3496,8 +4121,17 @@
         <f t="shared" si="11"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3537,8 +4171,17 @@
         <f t="shared" si="11"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>102</v>
+      </c>
+      <c r="R65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3587,8 +4230,17 @@
         <f t="shared" ref="O66:O97" si="13">D66*(1/(F66*1000/(60*60)))</f>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3628,8 +4280,17 @@
         <f t="shared" si="13"/>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>102</v>
+      </c>
+      <c r="R67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" ref="A68:A131" si="14">A67</f>
         <v>Green</v>
@@ -3669,8 +4330,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>102</v>
+      </c>
+      <c r="R68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3710,8 +4380,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3751,8 +4430,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>102</v>
+      </c>
+      <c r="R70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3792,8 +4480,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>102</v>
+      </c>
+      <c r="R71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3833,8 +4530,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>102</v>
+      </c>
+      <c r="R72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3874,8 +4580,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>102</v>
+      </c>
+      <c r="R73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3924,8 +4639,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>102</v>
+      </c>
+      <c r="R74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3965,8 +4689,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>102</v>
+      </c>
+      <c r="R75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4006,8 +4739,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>102</v>
+      </c>
+      <c r="R76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4029,6 +4771,9 @@
       </c>
       <c r="G77" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="H77" s="3">
+        <v>77</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="9"/>
@@ -4049,8 +4794,17 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q77" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4100,8 +4854,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4141,8 +4904,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P79" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>102</v>
+      </c>
+      <c r="R79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4182,8 +4954,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>102</v>
+      </c>
+      <c r="R80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4223,8 +5004,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P81" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>102</v>
+      </c>
+      <c r="R81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4264,8 +5054,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P82" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>102</v>
+      </c>
+      <c r="R82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4305,8 +5104,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P83" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>102</v>
+      </c>
+      <c r="R83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4346,8 +5154,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P84" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>102</v>
+      </c>
+      <c r="R84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4387,8 +5204,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P85" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>102</v>
+      </c>
+      <c r="R85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4432,8 +5258,17 @@
         <f t="shared" si="13"/>
         <v>15.428571428571431</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P86" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q86" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4455,6 +5290,9 @@
       </c>
       <c r="G87" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="H87" s="3">
+        <v>85</v>
       </c>
       <c r="I87" s="3">
         <f>C88</f>
@@ -4472,8 +5310,17 @@
         <f t="shared" si="13"/>
         <v>14.399999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P87" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q87" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4513,8 +5360,17 @@
         <f t="shared" si="13"/>
         <v>12.470399999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P88" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>102</v>
+      </c>
+      <c r="R88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4560,8 +5416,17 @@
         <f t="shared" si="13"/>
         <v>14.399999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P89" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>102</v>
+      </c>
+      <c r="R89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4601,8 +5466,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>102</v>
+      </c>
+      <c r="R90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4642,8 +5516,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P91" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>102</v>
+      </c>
+      <c r="R91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4683,8 +5566,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>102</v>
+      </c>
+      <c r="R92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4724,8 +5616,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>102</v>
+      </c>
+      <c r="R93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4765,8 +5666,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P94" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>102</v>
+      </c>
+      <c r="R94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4806,8 +5716,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P95" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>102</v>
+      </c>
+      <c r="R95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4847,8 +5766,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P96" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>102</v>
+      </c>
+      <c r="R96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4897,8 +5825,17 @@
         <f t="shared" si="13"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P97" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>102</v>
+      </c>
+      <c r="R97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4938,8 +5875,17 @@
         <f t="shared" ref="O98:O129" si="21">D98*(1/(F98*1000/(60*60)))</f>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P98" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>102</v>
+      </c>
+      <c r="R98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4979,8 +5925,17 @@
         <f t="shared" si="21"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P99" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>102</v>
+      </c>
+      <c r="R99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5020,8 +5975,17 @@
         <f t="shared" si="21"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P100" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>102</v>
+      </c>
+      <c r="R100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5043,6 +6007,9 @@
       </c>
       <c r="G101" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="H101" s="3">
+        <v>85</v>
       </c>
       <c r="I101" s="3">
         <v>85</v>
@@ -5059,8 +6026,17 @@
         <f t="shared" si="21"/>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P101" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q101" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5082,6 +6058,9 @@
       </c>
       <c r="G102" s="3" t="s">
         <v>84</v>
+      </c>
+      <c r="H102" s="3">
+        <v>77</v>
       </c>
       <c r="I102" s="3">
         <f t="shared" si="19"/>
@@ -5099,8 +6078,17 @@
         <f t="shared" si="21"/>
         <v>4.8461538461538467</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P102" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q102" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5140,8 +6128,17 @@
         <f t="shared" si="21"/>
         <v>12.857142857142859</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P103" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>102</v>
+      </c>
+      <c r="R103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5181,8 +6178,17 @@
         <f t="shared" si="21"/>
         <v>12.857142857142859</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P104" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>102</v>
+      </c>
+      <c r="R104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5222,8 +6228,17 @@
         <f t="shared" si="21"/>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P105" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>102</v>
+      </c>
+      <c r="R105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5273,8 +6288,17 @@
         <f t="shared" si="21"/>
         <v>12.857142857142859</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>102</v>
+      </c>
+      <c r="R106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5314,8 +6338,17 @@
         <f t="shared" si="21"/>
         <v>12.857142857142859</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P107" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>102</v>
+      </c>
+      <c r="R107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5355,8 +6388,17 @@
         <f t="shared" si="21"/>
         <v>11.571428571428573</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P108" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>102</v>
+      </c>
+      <c r="R108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5396,8 +6438,17 @@
         <f t="shared" si="21"/>
         <v>12.857142857142859</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P109" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>102</v>
+      </c>
+      <c r="R109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5437,8 +6488,17 @@
         <f t="shared" si="21"/>
         <v>12.857142857142859</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P110" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>102</v>
+      </c>
+      <c r="R110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5478,8 +6538,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P111" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>102</v>
+      </c>
+      <c r="R111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5519,8 +6588,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P112" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>102</v>
+      </c>
+      <c r="R112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5560,8 +6638,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P113" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>102</v>
+      </c>
+      <c r="R113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5601,8 +6688,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P114" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>102</v>
+      </c>
+      <c r="R114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5653,8 +6749,17 @@
         <f t="shared" si="21"/>
         <v>19.439999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P115" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>102</v>
+      </c>
+      <c r="R115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5694,8 +6799,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P116" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>102</v>
+      </c>
+      <c r="R116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5735,8 +6849,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P117" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>102</v>
+      </c>
+      <c r="R117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5776,8 +6899,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P118" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>102</v>
+      </c>
+      <c r="R118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5817,8 +6949,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P119" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>102</v>
+      </c>
+      <c r="R119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5858,8 +6999,17 @@
         <f t="shared" si="21"/>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P120" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>102</v>
+      </c>
+      <c r="R120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5899,8 +7049,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P121" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>102</v>
+      </c>
+      <c r="R121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5940,8 +7099,17 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P122" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>102</v>
+      </c>
+      <c r="R122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5984,8 +7152,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P123" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>102</v>
+      </c>
+      <c r="R123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6035,8 +7212,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P124" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>102</v>
+      </c>
+      <c r="R124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6079,8 +7265,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P125" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>102</v>
+      </c>
+      <c r="R125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6123,8 +7318,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P126" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>102</v>
+      </c>
+      <c r="R126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6167,8 +7371,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P127" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>102</v>
+      </c>
+      <c r="R127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6211,8 +7424,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P128" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>102</v>
+      </c>
+      <c r="R128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6255,8 +7477,17 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P129" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>102</v>
+      </c>
+      <c r="R129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6299,8 +7530,17 @@
         <f t="shared" ref="O130:O151" si="24">D130*(1/(F130*1000/(60*60)))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P130" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>102</v>
+      </c>
+      <c r="R130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6343,8 +7583,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P131" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>102</v>
+      </c>
+      <c r="R131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" ref="A132:A151" si="25">A131</f>
         <v>Green</v>
@@ -6387,8 +7636,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P132" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>102</v>
+      </c>
+      <c r="R132" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6438,8 +7696,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P133" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>102</v>
+      </c>
+      <c r="R133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6482,8 +7749,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P134" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>102</v>
+      </c>
+      <c r="R134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6526,8 +7802,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P135" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>102</v>
+      </c>
+      <c r="R135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6570,8 +7855,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P136" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>102</v>
+      </c>
+      <c r="R136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6614,8 +7908,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P137" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>102</v>
+      </c>
+      <c r="R137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6658,8 +7961,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P138" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>102</v>
+      </c>
+      <c r="R138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6702,8 +8014,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P139" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>102</v>
+      </c>
+      <c r="R139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6746,8 +8067,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P140" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>102</v>
+      </c>
+      <c r="R140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6790,8 +8120,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P141" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>102</v>
+      </c>
+      <c r="R141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6841,8 +8180,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P142" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>102</v>
+      </c>
+      <c r="R142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6885,8 +8233,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P143" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>102</v>
+      </c>
+      <c r="R143" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6929,8 +8286,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P144" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>102</v>
+      </c>
+      <c r="R144" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6970,8 +8336,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P145" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>102</v>
+      </c>
+      <c r="R145" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7011,8 +8386,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P146" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>102</v>
+      </c>
+      <c r="R146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7052,8 +8436,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P147" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>102</v>
+      </c>
+      <c r="R147" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7093,8 +8486,17 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P148" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>102</v>
+      </c>
+      <c r="R148" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7135,8 +8537,17 @@
         <f t="shared" si="24"/>
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P149" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>102</v>
+      </c>
+      <c r="R149" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7176,8 +8587,17 @@
         <f t="shared" si="24"/>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P150" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>102</v>
+      </c>
+      <c r="R150" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7199,6 +8619,9 @@
       </c>
       <c r="G151" s="3" t="s">
         <v>99</v>
+      </c>
+      <c r="H151" s="3">
+        <v>30</v>
       </c>
       <c r="I151" s="3">
         <v>29</v>
@@ -7215,8 +8638,17 @@
         <f t="shared" si="24"/>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q151" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R151" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>42</v>
       </c>
@@ -7238,6 +8670,9 @@
       <c r="G152" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="H152" s="3">
+        <v>57</v>
+      </c>
       <c r="I152" s="3">
         <v>152</v>
       </c>
@@ -7249,8 +8684,17 @@
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P152" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q152" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R152" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>42</v>
       </c>
@@ -7283,8 +8727,17 @@
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P153" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>102</v>
+      </c>
+      <c r="R153" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>42</v>
       </c>
@@ -7306,6 +8759,9 @@
       <c r="G154" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="H154" s="3">
+        <v>63</v>
+      </c>
       <c r="I154" s="3">
         <v>63</v>
       </c>
@@ -7316,6 +8772,15 @@
       <c r="N154" s="3">
         <f t="shared" si="26"/>
         <v>0.5</v>
+      </c>
+      <c r="P154" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q154" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R154" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/lines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/ajb321_pitt_edu/Documents/Documents/Trains/train_system/system_data/lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104823A11D487E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5F5CCE-3E05-41DB-875A-3EB3434447AC}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="24285" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -703,23 +714,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="32.65" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -766,7 +777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -804,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -854,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A67" si="3">A3</f>
         <v>Green</v>
@@ -895,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -936,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -977,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1018,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1060,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1101,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1151,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1192,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1233,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1276,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1318,7 +1329,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1359,7 +1370,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1400,7 +1411,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1450,7 +1461,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1491,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1532,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1576,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1617,7 +1628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1658,7 +1669,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1708,7 +1719,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1749,7 +1760,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1790,7 +1801,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1831,7 +1842,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1872,7 +1883,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1913,7 +1924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1954,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -1999,7 +2010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2039,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2089,7 +2100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2130,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2171,7 +2182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2212,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2253,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2297,7 +2308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -2341,7 +2352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2385,7 +2396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2435,7 +2446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2479,7 +2490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2523,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2567,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2611,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2655,7 +2666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2699,7 +2710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2743,7 +2754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2787,7 +2798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2837,7 +2848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2881,7 +2892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2925,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -2969,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3013,7 +3024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3057,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3101,7 +3112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3145,7 +3156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3189,7 +3200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3242,7 +3253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3286,7 +3297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3327,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3368,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3409,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3453,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3497,7 +3508,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3538,7 +3549,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3588,7 +3599,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Green</v>
@@ -3629,7 +3640,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="str">
         <f t="shared" ref="A68:A131" si="14">A67</f>
         <v>Green</v>
@@ -3670,7 +3681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3711,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3752,7 +3763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3793,7 +3804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3834,7 +3845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3875,7 +3886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3925,7 +3936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -3966,7 +3977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4007,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4050,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4101,7 +4112,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4142,7 +4153,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4183,7 +4194,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4224,7 +4235,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4265,7 +4276,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4306,7 +4317,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4347,7 +4358,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4388,7 +4399,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4433,7 +4444,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4473,7 +4484,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4514,7 +4525,7 @@
         <v>12.470399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4561,7 +4572,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4602,7 +4613,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4643,7 +4654,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4684,7 +4695,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4725,7 +4736,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4766,7 +4777,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4807,7 +4818,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4848,7 +4859,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4898,7 +4909,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4939,7 +4950,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -4980,7 +4991,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5021,7 +5032,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5060,7 +5071,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5100,7 +5111,7 @@
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5141,7 +5152,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5182,7 +5193,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5223,7 +5234,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5274,7 +5285,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5315,7 +5326,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5356,7 +5367,7 @@
         <v>11.571428571428573</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5397,7 +5408,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5438,7 +5449,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5479,7 +5490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5520,7 +5531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5561,7 +5572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5602,7 +5613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5654,7 +5665,7 @@
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5695,7 +5706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5736,7 +5747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5777,7 +5788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A119" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5818,7 +5829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5859,7 +5870,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5900,7 +5911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5941,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -5985,7 +5996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6036,7 +6047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6080,7 +6091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6124,7 +6135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6168,7 +6179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6212,7 +6223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6256,7 +6267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6300,7 +6311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="str">
         <f t="shared" si="14"/>
         <v>Green</v>
@@ -6344,7 +6355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="str">
         <f t="shared" ref="A132:A151" si="25">A131</f>
         <v>Green</v>
@@ -6388,7 +6399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6439,7 +6450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6483,7 +6494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6527,7 +6538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A136" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6571,7 +6582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A137" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6615,7 +6626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A138" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6659,7 +6670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6703,7 +6714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A140" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6747,7 +6758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A141" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6791,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A142" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6842,7 +6853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6886,7 +6897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A144" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6930,7 +6941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -6971,7 +6982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7012,7 +7023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7053,7 +7064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7094,7 +7105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A149" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7136,7 +7147,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7177,7 +7188,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A151" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Green</v>
@@ -7216,7 +7227,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A152" s="8" t="s">
         <v>42</v>
       </c>
@@ -7250,7 +7261,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A153" s="8" t="s">
         <v>42</v>
       </c>
@@ -7284,7 +7295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A154" s="8" t="s">
         <v>42</v>
       </c>

--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabella\Trains\train_system\system_data\lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FB28F-EA6D-4A7A-9007-51DBB235B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA821C-5C43-4637-AECD-F8EB609CF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>102</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>102</v>
@@ -2312,10 +2312,10 @@
         <v>102</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
         <v>102</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>102</v>
@@ -3810,7 +3810,7 @@
         <v>102</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R58" s="9">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>102</v>
       </c>
       <c r="Q64" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>102</v>
       </c>
       <c r="Q77" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R77" t="s">
         <v>102</v>
@@ -5314,7 +5314,7 @@
         <v>102</v>
       </c>
       <c r="Q87" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R87" t="s">
         <v>102</v>
@@ -8642,7 +8642,7 @@
         <v>102</v>
       </c>
       <c r="Q151" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R151" t="s">
         <v>102</v>

--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{448FB28F-EA6D-4A7A-9007-51DBB235B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B07DE40-2925-4D8F-9E3F-8C3E124C5801}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{448FB28F-EA6D-4A7A-9007-51DBB235B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5FA912-DAD2-4E7B-A0C0-3FA77DDD832D}"/>
   <bookViews>
-    <workbookView xWindow="-16920" yWindow="0" windowWidth="17025" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>Section</t>
   </si>
@@ -222,7 +222,10 @@
     <t>Underground</t>
   </si>
   <si>
-    <t>Crossing</t>
+    <t>Crossing Signal</t>
+  </si>
+  <si>
+    <t>Light Signal</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P154"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -624,11 +627,11 @@
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="10" width="10.36328125" customWidth="1"/>
-    <col min="11" max="12" width="13.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -660,17 +663,20 @@
         <v>65</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
@@ -690,7 +696,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="9">
-        <f>E2*D2/100</f>
+        <f t="shared" ref="G2:G33" si="0">E2*D2/100</f>
         <v>0.5</v>
       </c>
       <c r="H2" s="9">
@@ -703,16 +709,19 @@
       <c r="J2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -733,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="9">
-        <f>E3*D3/100</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="9">
@@ -746,21 +755,24 @@
       <c r="J3" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="9" t="str">
-        <f>C2 &amp; ", " &amp; C4</f>
+      <c r="M3" s="9" t="str">
+        <f t="shared" ref="M3:M12" si="1">C2 &amp; ", " &amp; C4</f>
         <v>1, 3</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="str">
-        <f t="shared" ref="A4:A67" si="0">A3</f>
+        <f t="shared" ref="A4:A67" si="2">A3</f>
         <v>Green</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -779,11 +791,11 @@
         <v>45</v>
       </c>
       <c r="G4" s="9">
-        <f>E4*D4/100</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H67" si="1">G4+H3</f>
+        <f t="shared" ref="H4:H67" si="3">G4+H3</f>
         <v>3</v>
       </c>
       <c r="I4" s="9" t="b">
@@ -792,19 +804,22 @@
       <c r="J4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="str">
-        <f>C3 &amp; ", " &amp; C5</f>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>2, 4</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -823,32 +838,35 @@
         <v>45</v>
       </c>
       <c r="G5" s="9">
-        <f>E5*D5/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H5" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="str">
-        <f>C4 &amp; ", " &amp; C6</f>
         <v>3, 5</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -867,32 +885,35 @@
         <v>45</v>
       </c>
       <c r="G6" s="9">
-        <f>E6*D6/100</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H6" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="str">
-        <f>C5 &amp; ", " &amp; C7</f>
         <v>4, 6</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -911,32 +932,35 @@
         <v>45</v>
       </c>
       <c r="G7" s="9">
-        <f>E7*D7/100</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H7" s="9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="str">
-        <f>C6 &amp; ", " &amp; C8</f>
         <v>5, 7</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -955,32 +979,35 @@
         <v>45</v>
       </c>
       <c r="G8" s="9">
-        <f>E8*D8/100</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" s="9">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9" t="str">
-        <f>C7 &amp; ", " &amp; C9</f>
         <v>6, 8</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -999,32 +1026,35 @@
         <v>45</v>
       </c>
       <c r="G9" s="9">
-        <f>E9*D9/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="9">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9" t="str">
-        <f>C8 &amp; ", " &amp; C10</f>
         <v>7, 9</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1043,34 +1073,37 @@
         <v>45</v>
       </c>
       <c r="G10" s="9">
-        <f>E10*D10/100</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="H10" s="9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="9" t="str">
-        <f>C9 &amp; ", " &amp; C11</f>
         <v>8, 10</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1089,32 +1122,35 @@
         <v>45</v>
       </c>
       <c r="G11" s="9">
-        <f>E11*D11/100</f>
+        <f t="shared" si="0"/>
         <v>-4.5</v>
       </c>
       <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="I11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="I11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="str">
-        <f>C10 &amp; ", " &amp; C12</f>
         <v>9, 11</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1133,32 +1169,35 @@
         <v>45</v>
       </c>
       <c r="G12" s="9">
-        <f>E12*D12/100</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="H12" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="I12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="I12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="str">
-        <f>C11 &amp; ", " &amp; C13</f>
         <v>10, 12</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1177,11 +1216,11 @@
         <v>45</v>
       </c>
       <c r="G13" s="9">
-        <f>E13*D13/100</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="9" t="b">
@@ -1190,18 +1229,21 @@
       <c r="J13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1220,11 +1262,11 @@
         <v>70</v>
       </c>
       <c r="G14" s="9">
-        <f>E14*D14/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="9" t="b">
@@ -1233,18 +1275,21 @@
       <c r="J14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1263,11 +1308,11 @@
         <v>70</v>
       </c>
       <c r="G15" s="9">
-        <f>E15*D15/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I15" s="9" t="b">
@@ -1276,19 +1321,22 @@
       <c r="J15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="str">
-        <f>C14 &amp; ", " &amp; C16</f>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="str">
+        <f t="shared" ref="M15:M29" si="4">C14 &amp; ", " &amp; C16</f>
         <v>13, 15</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1307,11 +1355,11 @@
         <v>70</v>
       </c>
       <c r="G16" s="9">
-        <f>E16*D16/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I16" s="9" t="b">
@@ -1320,19 +1368,22 @@
       <c r="J16" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="str">
-        <f>C15 &amp; ", " &amp; C17</f>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>14, 16</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1351,11 +1402,11 @@
         <v>70</v>
       </c>
       <c r="G17" s="9">
-        <f>E17*D17/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I17" s="9" t="b">
@@ -1364,21 +1415,24 @@
       <c r="J17" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="9" t="str">
-        <f>C16 &amp; ", " &amp; C18</f>
+      <c r="M17" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>15, 17</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1397,11 +1451,11 @@
         <v>60</v>
       </c>
       <c r="G18" s="9">
-        <f>E18*D18/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I18" s="9" t="b">
@@ -1410,19 +1464,22 @@
       <c r="J18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9" t="str">
-        <f>C17 &amp; ", " &amp; C19</f>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>16, 18</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1441,11 +1498,11 @@
         <v>60</v>
       </c>
       <c r="G19" s="9">
-        <f>E19*D19/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I19" s="9" t="b">
@@ -1454,19 +1511,22 @@
       <c r="J19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="str">
-        <f>C18 &amp; ", " &amp; C20</f>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>17, 19</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1485,11 +1545,11 @@
         <v>60</v>
       </c>
       <c r="G20" s="9">
-        <f>E20*D20/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I20" s="9" t="b">
@@ -1498,19 +1558,22 @@
       <c r="J20" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="str">
-        <f>C19 &amp; ", " &amp; C21</f>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>18, 20</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1529,11 +1592,11 @@
         <v>60</v>
       </c>
       <c r="G21" s="9">
-        <f>E21*D21/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I21" s="9" t="b">
@@ -1542,19 +1605,22 @@
       <c r="J21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="str">
-        <f>C20 &amp; ", " &amp; C22</f>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>19, 21</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1573,11 +1639,11 @@
         <v>70</v>
       </c>
       <c r="G22" s="9">
-        <f>E22*D22/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I22" s="9" t="b">
@@ -1586,19 +1652,22 @@
       <c r="J22" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="str">
-        <f>C21 &amp; ", " &amp; C23</f>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>20, 22</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1617,11 +1686,11 @@
         <v>70</v>
       </c>
       <c r="G23" s="9">
-        <f>E23*D23/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I23" s="9" t="b">
@@ -1630,21 +1699,24 @@
       <c r="J23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="9" t="str">
-        <f>C22 &amp; ", " &amp; C24</f>
+      <c r="M23" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>21, 23</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1663,11 +1735,11 @@
         <v>70</v>
       </c>
       <c r="G24" s="9">
-        <f>E24*D24/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I24" s="9" t="b">
@@ -1676,19 +1748,22 @@
       <c r="J24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9" t="str">
-        <f>C23 &amp; ", " &amp; C25</f>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>22, 24</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1707,11 +1782,11 @@
         <v>70</v>
       </c>
       <c r="G25" s="9">
-        <f>E25*D25/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I25" s="9" t="b">
@@ -1720,19 +1795,22 @@
       <c r="J25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9" t="str">
-        <f>C24 &amp; ", " &amp; C26</f>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>23, 25</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1751,11 +1829,11 @@
         <v>70</v>
       </c>
       <c r="G26" s="9">
-        <f>E26*D26/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I26" s="9" t="b">
@@ -1764,19 +1842,22 @@
       <c r="J26" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9" t="str">
-        <f>C25 &amp; ", " &amp; C27</f>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>24, 26</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1795,11 +1876,11 @@
         <v>70</v>
       </c>
       <c r="G27" s="9">
-        <f>E27*D27/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I27" s="9" t="b">
@@ -1808,19 +1889,22 @@
       <c r="J27" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9" t="str">
-        <f>C26 &amp; ", " &amp; C28</f>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>25, 27</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1839,11 +1923,11 @@
         <v>30</v>
       </c>
       <c r="G28" s="9">
-        <f>E28*D28/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I28" s="9" t="b">
@@ -1852,19 +1936,22 @@
       <c r="J28" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="str">
-        <f>C27 &amp; ", " &amp; C29</f>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>26, 28</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -1883,11 +1970,11 @@
         <v>30</v>
       </c>
       <c r="G29" s="9">
-        <f>E29*D29/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I29" s="9" t="b">
@@ -1896,19 +1983,22 @@
       <c r="J29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9" t="str">
-        <f>C28 &amp; ", " &amp; C30</f>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>27, 29</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="3"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -1927,11 +2017,11 @@
         <v>30</v>
       </c>
       <c r="G30" s="9">
-        <f>E30*D30/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I30" s="9" t="b">
@@ -1940,18 +2030,21 @@
       <c r="J30" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -1970,11 +2063,11 @@
         <v>30</v>
       </c>
       <c r="G31" s="9">
-        <f>E31*D31/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I31" s="9" t="b">
@@ -1983,18 +2076,21 @@
       <c r="J31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2013,11 +2109,11 @@
         <v>30</v>
       </c>
       <c r="G32" s="9">
-        <f>E32*D32/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I32" s="9" t="b">
@@ -2026,21 +2122,24 @@
       <c r="J32" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="9" t="str">
-        <f>C31 &amp; ", " &amp; C33</f>
+      <c r="M32" s="9" t="str">
+        <f t="shared" ref="M32:M76" si="5">C31 &amp; ", " &amp; C33</f>
         <v>30, 32</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -2059,11 +2158,11 @@
         <v>30</v>
       </c>
       <c r="G33" s="9">
-        <f>E33*D33/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I33" s="9" t="b">
@@ -2072,19 +2171,22 @@
       <c r="J33" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="str">
-        <f>C32 &amp; ", " &amp; C34</f>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>31, 33</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2103,11 +2205,11 @@
         <v>30</v>
       </c>
       <c r="G34" s="9">
-        <f>E34*D34/100</f>
+        <f t="shared" ref="G34:G65" si="6">E34*D34/100</f>
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I34" s="9" t="b">
@@ -2116,19 +2218,22 @@
       <c r="J34" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9" t="str">
-        <f>C33 &amp; ", " &amp; C35</f>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>32, 34</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -2147,11 +2252,11 @@
         <v>30</v>
       </c>
       <c r="G35" s="9">
-        <f>E35*D35/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I35" s="9" t="b">
@@ -2160,19 +2265,22 @@
       <c r="J35" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9" t="str">
-        <f>C34 &amp; ", " &amp; C36</f>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>33, 35</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -2191,11 +2299,11 @@
         <v>30</v>
       </c>
       <c r="G36" s="9">
-        <f>E36*D36/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I36" s="9" t="b">
@@ -2204,19 +2312,22 @@
       <c r="J36" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9" t="str">
-        <f>C35 &amp; ", " &amp; C37</f>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>34, 36</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -2235,11 +2346,11 @@
         <v>30</v>
       </c>
       <c r="G37" s="9">
-        <f>E37*D37/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I37" s="9" t="b">
@@ -2248,17 +2359,20 @@
       <c r="J37" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9" t="str">
-        <f>C36 &amp; ", " &amp; C38</f>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>35, 37</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -2279,11 +2393,11 @@
         <v>30</v>
       </c>
       <c r="G38" s="9">
-        <f>E38*D38/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I38" s="9" t="b">
@@ -2292,19 +2406,22 @@
       <c r="J38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9" t="str">
-        <f>C37 &amp; ", " &amp; C39</f>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>36, 38</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="4"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -2323,11 +2440,11 @@
         <v>30</v>
       </c>
       <c r="G39" s="9">
-        <f>E39*D39/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I39" s="9" t="b">
@@ -2336,19 +2453,22 @@
       <c r="J39" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9" t="str">
-        <f>C38 &amp; ", " &amp; C40</f>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>37, 39</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="4"/>
+      <c r="N39" s="3"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -2367,11 +2487,11 @@
         <v>30</v>
       </c>
       <c r="G40" s="9">
-        <f>E40*D40/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I40" s="9" t="b">
@@ -2380,21 +2500,24 @@
       <c r="J40" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="9" t="str">
-        <f>C39 &amp; ", " &amp; C41</f>
+      <c r="M40" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>38, 40</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="4"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -2413,11 +2536,11 @@
         <v>30</v>
       </c>
       <c r="G41" s="9">
-        <f>E41*D41/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I41" s="9" t="b">
@@ -2426,19 +2549,22 @@
       <c r="J41" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9" t="str">
-        <f>C40 &amp; ", " &amp; C42</f>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>39, 41</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="4"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2457,11 +2583,11 @@
         <v>30</v>
       </c>
       <c r="G42" s="9">
-        <f>E42*D42/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I42" s="9" t="b">
@@ -2470,19 +2596,22 @@
       <c r="J42" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="str">
-        <f>C41 &amp; ", " &amp; C43</f>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>40, 42</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="4"/>
+      <c r="N42" s="3"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -2501,11 +2630,11 @@
         <v>30</v>
       </c>
       <c r="G43" s="9">
-        <f>E43*D43/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I43" s="9" t="b">
@@ -2514,19 +2643,22 @@
       <c r="J43" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9" t="str">
-        <f>C42 &amp; ", " &amp; C44</f>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>41, 43</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="4"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2545,11 +2677,11 @@
         <v>30</v>
       </c>
       <c r="G44" s="9">
-        <f>E44*D44/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I44" s="9" t="b">
@@ -2558,19 +2690,22 @@
       <c r="J44" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9" t="str">
-        <f>C43 &amp; ", " &amp; C45</f>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>42, 44</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="4"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2589,11 +2724,11 @@
         <v>30</v>
       </c>
       <c r="G45" s="9">
-        <f>E45*D45/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I45" s="9" t="b">
@@ -2602,19 +2737,22 @@
       <c r="J45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9" t="str">
-        <f>C44 &amp; ", " &amp; C46</f>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>43, 45</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="3"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2633,11 +2771,11 @@
         <v>30</v>
       </c>
       <c r="G46" s="9">
-        <f>E46*D46/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I46" s="9" t="b">
@@ -2646,19 +2784,22 @@
       <c r="J46" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9" t="str">
-        <f>C45 &amp; ", " &amp; C47</f>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>44, 46</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="3"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2677,11 +2818,11 @@
         <v>30</v>
       </c>
       <c r="G47" s="9">
-        <f>E47*D47/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I47" s="9" t="b">
@@ -2690,19 +2831,22 @@
       <c r="J47" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9" t="str">
-        <f>C46 &amp; ", " &amp; C48</f>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>45, 47</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="4"/>
+      <c r="N47" s="3"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2721,11 +2865,11 @@
         <v>30</v>
       </c>
       <c r="G48" s="9">
-        <f>E48*D48/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I48" s="9" t="b">
@@ -2734,19 +2878,22 @@
       <c r="J48" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9" t="str">
-        <f>C47 &amp; ", " &amp; C49</f>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>46, 48</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2765,11 +2912,11 @@
         <v>30</v>
       </c>
       <c r="G49" s="9">
-        <f>E49*D49/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I49" s="9" t="b">
@@ -2778,21 +2925,24 @@
       <c r="J49" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L49" s="9" t="str">
-        <f>C48 &amp; ", " &amp; C50</f>
+      <c r="M49" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>47, 49</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="4"/>
+      <c r="N49" s="3"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2811,11 +2961,11 @@
         <v>30</v>
       </c>
       <c r="G50" s="9">
-        <f>E50*D50/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I50" s="9" t="b">
@@ -2824,19 +2974,22 @@
       <c r="J50" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9" t="str">
-        <f>C49 &amp; ", " &amp; C51</f>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>48, 50</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="4"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -2855,11 +3008,11 @@
         <v>30</v>
       </c>
       <c r="G51" s="9">
-        <f>E51*D51/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I51" s="9" t="b">
@@ -2868,19 +3021,22 @@
       <c r="J51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9" t="str">
-        <f>C50 &amp; ", " &amp; C52</f>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>49, 51</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="4"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -2899,11 +3055,11 @@
         <v>30</v>
       </c>
       <c r="G52" s="9">
-        <f>E52*D52/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I52" s="9" t="b">
@@ -2912,19 +3068,22 @@
       <c r="J52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9" t="str">
-        <f>C51 &amp; ", " &amp; C53</f>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>50, 52</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="4"/>
+      <c r="N52" s="3"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -2943,11 +3102,11 @@
         <v>30</v>
       </c>
       <c r="G53" s="9">
-        <f>E53*D53/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I53" s="9" t="b">
@@ -2956,19 +3115,22 @@
       <c r="J53" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9" t="str">
-        <f>C52 &amp; ", " &amp; C54</f>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>51, 53</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="4"/>
+      <c r="N53" s="3"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2987,11 +3149,11 @@
         <v>30</v>
       </c>
       <c r="G54" s="9">
-        <f>E54*D54/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I54" s="9" t="b">
@@ -3000,19 +3162,22 @@
       <c r="J54" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9" t="str">
-        <f>C53 &amp; ", " &amp; C55</f>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>52, 54</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="4"/>
+      <c r="N54" s="3"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -3031,11 +3196,11 @@
         <v>30</v>
       </c>
       <c r="G55" s="9">
-        <f>E55*D55/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I55" s="9" t="b">
@@ -3044,19 +3209,22 @@
       <c r="J55" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9" t="str">
-        <f>C54 &amp; ", " &amp; C56</f>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>53, 55</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="4"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3075,11 +3243,11 @@
         <v>30</v>
       </c>
       <c r="G56" s="9">
-        <f>E56*D56/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I56" s="9" t="b">
@@ -3088,19 +3256,22 @@
       <c r="J56" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9" t="str">
-        <f>C55 &amp; ", " &amp; C57</f>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>54, 56</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="4"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -3119,11 +3290,11 @@
         <v>30</v>
       </c>
       <c r="G57" s="9">
-        <f>E57*D57/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I57" s="9" t="b">
@@ -3132,19 +3303,22 @@
       <c r="J57" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9" t="str">
-        <f>C56 &amp; ", " &amp; C58</f>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>55, 57</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -3163,11 +3337,11 @@
         <v>30</v>
       </c>
       <c r="G58" s="9">
-        <f>E58*D58/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I58" s="9" t="b">
@@ -3176,21 +3350,24 @@
       <c r="J58" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L58" s="9" t="str">
-        <f>C57 &amp; ", " &amp; C59</f>
+      <c r="M58" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>56, 58</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="4"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -3209,11 +3386,11 @@
         <v>30</v>
       </c>
       <c r="G59" s="9">
-        <f>E59*D59/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I59" s="9" t="b">
@@ -3222,19 +3399,22 @@
       <c r="J59" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9" t="str">
-        <f>C58 &amp; ", " &amp; C60</f>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>57, 59</v>
       </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="4"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -3253,11 +3433,11 @@
         <v>30</v>
       </c>
       <c r="G60" s="9">
-        <f>E60*D60/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I60" s="9" t="b">
@@ -3266,16 +3446,19 @@
       <c r="J60" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9" t="str">
-        <f>C59 &amp; ", " &amp; C61</f>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>58, 60</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -3294,11 +3477,11 @@
         <v>30</v>
       </c>
       <c r="G61" s="9">
-        <f>E61*D61/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I61" s="9" t="b">
@@ -3307,19 +3490,22 @@
       <c r="J61" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9" t="str">
-        <f>C60 &amp; ", " &amp; C62</f>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>59, 61</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="4"/>
+      <c r="N61" s="3"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -3338,11 +3524,11 @@
         <v>30</v>
       </c>
       <c r="G62" s="9">
-        <f>E62*D62/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I62" s="9" t="b">
@@ -3351,19 +3537,22 @@
       <c r="J62" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9" t="str">
-        <f>C61 &amp; ", " &amp; C63</f>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>60, 62</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="4"/>
+      <c r="N62" s="3"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -3382,11 +3571,11 @@
         <v>30</v>
       </c>
       <c r="G63" s="9">
-        <f>E63*D63/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I63" s="9" t="b">
@@ -3395,19 +3584,22 @@
       <c r="J63" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9" t="str">
-        <f>C62 &amp; ", " &amp; C64</f>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>61, 63</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="4"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N63" s="3"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -3426,11 +3618,11 @@
         <v>70</v>
       </c>
       <c r="G64" s="9">
-        <f>E64*D64/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I64" s="9" t="b">
@@ -3439,17 +3631,20 @@
       <c r="J64" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9" t="str">
-        <f>C63 &amp; ", " &amp; C65</f>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>62, 64</v>
       </c>
-      <c r="M64" s="3"/>
-      <c r="O64" s="6"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N64" s="3"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -3468,11 +3663,11 @@
         <v>70</v>
       </c>
       <c r="G65" s="9">
-        <f>E65*D65/100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I65" s="9" t="b">
@@ -3481,16 +3676,19 @@
       <c r="J65" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9" t="str">
-        <f>C64 &amp; ", " &amp; C66</f>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>63, 65</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -3509,11 +3707,11 @@
         <v>70</v>
       </c>
       <c r="G66" s="9">
-        <f>E66*D66/100</f>
+        <f t="shared" ref="G66:G97" si="7">E66*D66/100</f>
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I66" s="9" t="b">
@@ -3522,21 +3720,24 @@
       <c r="J66" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L66" s="9" t="str">
-        <f>C65 &amp; ", " &amp; C67</f>
+      <c r="M66" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>64, 66</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="4"/>
+      <c r="N66" s="3"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -3555,11 +3756,11 @@
         <v>70</v>
       </c>
       <c r="G67" s="9">
-        <f>E67*D67/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I67" s="9" t="b">
@@ -3568,16 +3769,19 @@
       <c r="J67" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9" t="str">
-        <f>C66 &amp; ", " &amp; C68</f>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>65, 67</v>
       </c>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="str">
-        <f t="shared" ref="A68:A131" si="2">A67</f>
+        <f t="shared" ref="A68:A131" si="8">A67</f>
         <v>Green</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -3596,11 +3800,11 @@
         <v>40</v>
       </c>
       <c r="G68" s="9">
-        <f>E68*D68/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" ref="H68:H131" si="3">G68+H67</f>
+        <f t="shared" ref="H68:H131" si="9">G68+H67</f>
         <v>0.5</v>
       </c>
       <c r="I68" s="9" t="b">
@@ -3609,16 +3813,19 @@
       <c r="J68" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9" t="str">
-        <f>C67 &amp; ", " &amp; C69</f>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>66, 68</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -3637,11 +3844,11 @@
         <v>40</v>
       </c>
       <c r="G69" s="9">
-        <f>E69*D69/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I69" s="9" t="b">
@@ -3650,16 +3857,19 @@
       <c r="J69" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9" t="str">
-        <f>C68 &amp; ", " &amp; C70</f>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>67, 69</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -3678,11 +3888,11 @@
         <v>40</v>
       </c>
       <c r="G70" s="9">
-        <f>E70*D70/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H70" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I70" s="9" t="b">
@@ -3691,16 +3901,19 @@
       <c r="J70" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9" t="str">
-        <f>C69 &amp; ", " &amp; C71</f>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>68, 70</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -3719,11 +3932,11 @@
         <v>40</v>
       </c>
       <c r="G71" s="9">
-        <f>E71*D71/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H71" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I71" s="9" t="b">
@@ -3732,16 +3945,19 @@
       <c r="J71" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9" t="str">
-        <f>C70 &amp; ", " &amp; C72</f>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>69, 71</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -3760,11 +3976,11 @@
         <v>40</v>
       </c>
       <c r="G72" s="9">
-        <f>E72*D72/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H72" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I72" s="9" t="b">
@@ -3773,16 +3989,19 @@
       <c r="J72" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9" t="str">
-        <f>C71 &amp; ", " &amp; C73</f>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>70, 72</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -3801,11 +4020,11 @@
         <v>40</v>
       </c>
       <c r="G73" s="9">
-        <f>E73*D73/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I73" s="9" t="b">
@@ -3814,16 +4033,19 @@
       <c r="J73" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9" t="str">
-        <f>C72 &amp; ", " &amp; C74</f>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>71, 73</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -3842,11 +4064,11 @@
         <v>40</v>
       </c>
       <c r="G74" s="9">
-        <f>E74*D74/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H74" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I74" s="9" t="b">
@@ -3855,18 +4077,21 @@
       <c r="J74" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L74" s="9" t="str">
-        <f>C73 &amp; ", " &amp; C75</f>
+      <c r="M74" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>72, 74</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -3885,11 +4110,11 @@
         <v>40</v>
       </c>
       <c r="G75" s="9">
-        <f>E75*D75/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H75" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I75" s="9" t="b">
@@ -3898,16 +4123,19 @@
       <c r="J75" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9" t="str">
-        <f>C74 &amp; ", " &amp; C76</f>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>73, 75</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -3926,11 +4154,11 @@
         <v>40</v>
       </c>
       <c r="G76" s="9">
-        <f>E76*D76/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H76" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I76" s="9" t="b">
@@ -3939,16 +4167,19 @@
       <c r="J76" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9" t="str">
-        <f>C75 &amp; ", " &amp; C77</f>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>74, 76</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -3967,11 +4198,11 @@
         <v>40</v>
       </c>
       <c r="G77" s="9">
-        <f>E77*D77/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H77" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I77" s="9" t="b">
@@ -3980,16 +4211,19 @@
       <c r="J77" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9" t="s">
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="O77" s="6"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N77" s="3"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -4008,11 +4242,11 @@
         <v>70</v>
       </c>
       <c r="G78" s="9">
-        <f>E78*D78/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I78" s="9" t="b">
@@ -4021,18 +4255,21 @@
       <c r="J78" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K78" s="9" t="s">
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="M78" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="O78" s="6"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N78" s="3"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -4051,11 +4288,11 @@
         <v>70</v>
       </c>
       <c r="G79" s="9">
-        <f>E79*D79/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H79" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I79" s="9" t="b">
@@ -4064,16 +4301,19 @@
       <c r="J79" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9" t="str">
-        <f>C78 &amp; ", " &amp; C80</f>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9" t="str">
+        <f t="shared" ref="M79:M85" si="10">C78 &amp; ", " &amp; C80</f>
         <v>77, 79</v>
       </c>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -4092,11 +4332,11 @@
         <v>70</v>
       </c>
       <c r="G80" s="9">
-        <f>E80*D80/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H80" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I80" s="9" t="b">
@@ -4105,16 +4345,19 @@
       <c r="J80" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9" t="str">
-        <f>C79 &amp; ", " &amp; C81</f>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9" t="str">
+        <f t="shared" si="10"/>
         <v>78, 80</v>
       </c>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -4133,11 +4376,11 @@
         <v>70</v>
       </c>
       <c r="G81" s="9">
-        <f>E81*D81/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I81" s="9" t="b">
@@ -4146,16 +4389,19 @@
       <c r="J81" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9" t="str">
-        <f>C80 &amp; ", " &amp; C82</f>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9" t="str">
+        <f t="shared" si="10"/>
         <v>79, 81</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -4174,11 +4420,11 @@
         <v>70</v>
       </c>
       <c r="G82" s="9">
-        <f>E82*D82/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I82" s="9" t="b">
@@ -4187,16 +4433,19 @@
       <c r="J82" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9" t="str">
-        <f>C81 &amp; ", " &amp; C83</f>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9" t="str">
+        <f t="shared" si="10"/>
         <v>80, 82</v>
       </c>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -4215,11 +4464,11 @@
         <v>70</v>
       </c>
       <c r="G83" s="9">
-        <f>E83*D83/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I83" s="9" t="b">
@@ -4228,16 +4477,19 @@
       <c r="J83" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9" t="str">
-        <f>C82 &amp; ", " &amp; C84</f>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9" t="str">
+        <f t="shared" si="10"/>
         <v>81, 83</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -4256,11 +4508,11 @@
         <v>70</v>
       </c>
       <c r="G84" s="9">
-        <f>E84*D84/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I84" s="9" t="b">
@@ -4269,16 +4521,19 @@
       <c r="J84" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9" t="str">
-        <f>C83 &amp; ", " &amp; C85</f>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9" t="str">
+        <f t="shared" si="10"/>
         <v>82, 84</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -4297,11 +4552,11 @@
         <v>70</v>
       </c>
       <c r="G85" s="9">
-        <f>E85*D85/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H85" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I85" s="9" t="b">
@@ -4310,16 +4565,19 @@
       <c r="J85" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9" t="str">
-        <f>C84 &amp; ", " &amp; C86</f>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9" t="str">
+        <f t="shared" si="10"/>
         <v>83, 85</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -4338,11 +4596,11 @@
         <v>70</v>
       </c>
       <c r="G86" s="9">
-        <f>E86*D86/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H86" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I86" s="9" t="b">
@@ -4351,16 +4609,19 @@
       <c r="J86" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9" t="s">
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M86" s="3"/>
-      <c r="O86" s="6"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N86" s="3"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -4379,11 +4640,11 @@
         <v>25</v>
       </c>
       <c r="G87" s="9">
-        <f>E87*D87/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I87" s="9" t="b">
@@ -4392,16 +4653,19 @@
       <c r="J87" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9" t="s">
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M87" s="3"/>
-      <c r="O87" s="6"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N87" s="3"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -4420,11 +4684,11 @@
         <v>25</v>
       </c>
       <c r="G88" s="9">
-        <f>E88*D88/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H88" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I88" s="9" t="b">
@@ -4433,16 +4697,19 @@
       <c r="J88" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9" t="str">
-        <f>C87 &amp; ", " &amp; C89</f>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9" t="str">
+        <f t="shared" ref="M88:M100" si="11">C87 &amp; ", " &amp; C89</f>
         <v>86, 88</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -4461,11 +4728,11 @@
         <v>25</v>
       </c>
       <c r="G89" s="9">
-        <f>E89*D89/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H89" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I89" s="9" t="b">
@@ -4474,16 +4741,19 @@
       <c r="J89" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9" t="str">
-        <f>C88 &amp; ", " &amp; C90</f>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>87, 89</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -4502,11 +4772,11 @@
         <v>25</v>
       </c>
       <c r="G90" s="9">
-        <f>E90*D90/100</f>
+        <f t="shared" si="7"/>
         <v>-0.375</v>
       </c>
       <c r="H90" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="I90" s="9" t="b">
@@ -4515,16 +4785,19 @@
       <c r="J90" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9" t="str">
-        <f>C89 &amp; ", " &amp; C91</f>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>88, 90</v>
       </c>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -4543,11 +4816,11 @@
         <v>25</v>
       </c>
       <c r="G91" s="9">
-        <f>E91*D91/100</f>
+        <f t="shared" si="7"/>
         <v>-0.75</v>
       </c>
       <c r="H91" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.625</v>
       </c>
       <c r="I91" s="9" t="b">
@@ -4556,16 +4829,19 @@
       <c r="J91" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9" t="str">
-        <f>C90 &amp; ", " &amp; C92</f>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>89, 91</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -4584,11 +4860,11 @@
         <v>25</v>
       </c>
       <c r="G92" s="9">
-        <f>E92*D92/100</f>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
       <c r="H92" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-2.125</v>
       </c>
       <c r="I92" s="9" t="b">
@@ -4597,16 +4873,19 @@
       <c r="J92" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9" t="str">
-        <f>C91 &amp; ", " &amp; C93</f>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>90, 92</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -4625,11 +4904,11 @@
         <v>25</v>
       </c>
       <c r="G93" s="9">
-        <f>E93*D93/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H93" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-2.125</v>
       </c>
       <c r="I93" s="9" t="b">
@@ -4638,16 +4917,19 @@
       <c r="J93" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9" t="str">
-        <f>C92 &amp; ", " &amp; C94</f>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>91, 93</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -4666,11 +4948,11 @@
         <v>25</v>
       </c>
       <c r="G94" s="9">
-        <f>E94*D94/100</f>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="H94" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.625</v>
       </c>
       <c r="I94" s="9" t="b">
@@ -4679,16 +4961,19 @@
       <c r="J94" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9" t="str">
-        <f>C93 &amp; ", " &amp; C95</f>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>92, 94</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -4707,11 +4992,11 @@
         <v>25</v>
       </c>
       <c r="G95" s="9">
-        <f>E95*D95/100</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="H95" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="I95" s="9" t="b">
@@ -4720,16 +5005,19 @@
       <c r="J95" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9" t="str">
-        <f>C94 &amp; ", " &amp; C96</f>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>93, 95</v>
       </c>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -4748,11 +5036,11 @@
         <v>25</v>
       </c>
       <c r="G96" s="9">
-        <f>E96*D96/100</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="H96" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I96" s="9" t="b">
@@ -4761,16 +5049,19 @@
       <c r="J96" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9" t="str">
-        <f>C95 &amp; ", " &amp; C97</f>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>94, 96</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -4789,11 +5080,11 @@
         <v>25</v>
       </c>
       <c r="G97" s="9">
-        <f>E97*D97/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H97" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I97" s="9" t="b">
@@ -4802,18 +5093,21 @@
       <c r="J97" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K97" s="9" t="s">
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L97" s="9" t="str">
-        <f>C96 &amp; ", " &amp; C98</f>
+      <c r="M97" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>95, 97</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -4832,11 +5126,11 @@
         <v>25</v>
       </c>
       <c r="G98" s="9">
-        <f>E98*D98/100</f>
+        <f t="shared" ref="G98:G129" si="12">E98*D98/100</f>
         <v>0</v>
       </c>
       <c r="H98" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I98" s="9" t="b">
@@ -4845,16 +5139,19 @@
       <c r="J98" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9" t="str">
-        <f>C97 &amp; ", " &amp; C99</f>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>96, 98</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -4873,11 +5170,11 @@
         <v>25</v>
       </c>
       <c r="G99" s="9">
-        <f>E99*D99/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H99" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I99" s="9" t="b">
@@ -4886,16 +5183,19 @@
       <c r="J99" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9" t="str">
-        <f>C98 &amp; ", " &amp; C100</f>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>97, 99</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -4914,11 +5214,11 @@
         <v>25</v>
       </c>
       <c r="G100" s="9">
-        <f>E100*D100/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H100" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I100" s="9" t="b">
@@ -4927,16 +5227,19 @@
       <c r="J100" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9" t="str">
-        <f>C99 &amp; ", " &amp; C101</f>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9" t="str">
+        <f t="shared" si="11"/>
         <v>98, 100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -4955,11 +5258,11 @@
         <v>25</v>
       </c>
       <c r="G101" s="9">
-        <f>E101*D101/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H101" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I101" s="9" t="b">
@@ -4968,16 +5271,19 @@
       <c r="J101" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M101" s="3"/>
-      <c r="O101" s="6"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N101" s="3"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -4996,11 +5302,11 @@
         <v>26</v>
       </c>
       <c r="G102" s="9">
-        <f>E102*D102/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H102" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I102" s="9" t="b">
@@ -5009,16 +5315,19 @@
       <c r="J102" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="O102" s="6"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N102" s="3"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -5037,11 +5346,11 @@
         <v>28</v>
       </c>
       <c r="G103" s="9">
-        <f>E103*D103/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H103" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I103" s="9" t="b">
@@ -5050,16 +5359,19 @@
       <c r="J103" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9" t="str">
-        <f>C102 &amp; ", " &amp; C104</f>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9" t="str">
+        <f t="shared" ref="M103:M150" si="13">C102 &amp; ", " &amp; C104</f>
         <v>101, 103</v>
       </c>
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -5078,11 +5390,11 @@
         <v>28</v>
       </c>
       <c r="G104" s="9">
-        <f>E104*D104/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H104" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I104" s="9" t="b">
@@ -5091,16 +5403,19 @@
       <c r="J104" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9" t="str">
-        <f>C103 &amp; ", " &amp; C105</f>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>102, 104</v>
       </c>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -5119,11 +5434,11 @@
         <v>28</v>
       </c>
       <c r="G105" s="9">
-        <f>E105*D105/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I105" s="9" t="b">
@@ -5132,16 +5447,19 @@
       <c r="J105" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9" t="str">
-        <f>C104 &amp; ", " &amp; C106</f>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>103, 105</v>
       </c>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -5160,11 +5478,11 @@
         <v>28</v>
       </c>
       <c r="G106" s="9">
-        <f>E106*D106/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H106" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I106" s="9" t="b">
@@ -5173,18 +5491,21 @@
       <c r="J106" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K106" s="9" t="s">
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L106" s="9" t="str">
-        <f>C105 &amp; ", " &amp; C107</f>
+      <c r="M106" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>104, 106</v>
       </c>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -5203,11 +5524,11 @@
         <v>28</v>
       </c>
       <c r="G107" s="9">
-        <f>E107*D107/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I107" s="9" t="b">
@@ -5216,16 +5537,19 @@
       <c r="J107" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9" t="str">
-        <f>C106 &amp; ", " &amp; C108</f>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>105, 107</v>
       </c>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -5244,11 +5568,11 @@
         <v>28</v>
       </c>
       <c r="G108" s="9">
-        <f>E108*D108/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H108" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I108" s="9" t="b">
@@ -5257,16 +5581,19 @@
       <c r="J108" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9" t="str">
-        <f>C107 &amp; ", " &amp; C109</f>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>106, 108</v>
       </c>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -5285,11 +5612,11 @@
         <v>28</v>
       </c>
       <c r="G109" s="9">
-        <f>E109*D109/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H109" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I109" s="9" t="b">
@@ -5298,16 +5625,19 @@
       <c r="J109" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9" t="str">
-        <f>C108 &amp; ", " &amp; C110</f>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>107, 109</v>
       </c>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -5326,11 +5656,11 @@
         <v>28</v>
       </c>
       <c r="G110" s="9">
-        <f>E110*D110/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I110" s="9" t="b">
@@ -5339,16 +5669,19 @@
       <c r="J110" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9" t="str">
-        <f>C109 &amp; ", " &amp; C111</f>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>108, 110</v>
       </c>
-      <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -5367,11 +5700,11 @@
         <v>30</v>
       </c>
       <c r="G111" s="9">
-        <f>E111*D111/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I111" s="9" t="b">
@@ -5380,16 +5713,19 @@
       <c r="J111" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9" t="str">
-        <f>C110 &amp; ", " &amp; C112</f>
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>109, 111</v>
       </c>
-      <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -5408,11 +5744,11 @@
         <v>30</v>
       </c>
       <c r="G112" s="9">
-        <f>E112*D112/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I112" s="9" t="b">
@@ -5421,16 +5757,19 @@
       <c r="J112" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9" t="str">
-        <f>C111 &amp; ", " &amp; C113</f>
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>110, 112</v>
       </c>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -5449,11 +5788,11 @@
         <v>30</v>
       </c>
       <c r="G113" s="9">
-        <f>E113*D113/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I113" s="9" t="b">
@@ -5462,16 +5801,19 @@
       <c r="J113" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9" t="str">
-        <f>C112 &amp; ", " &amp; C114</f>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>111, 113</v>
       </c>
-      <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -5490,11 +5832,11 @@
         <v>30</v>
       </c>
       <c r="G114" s="9">
-        <f>E114*D114/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I114" s="9" t="b">
@@ -5503,16 +5845,19 @@
       <c r="J114" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9" t="str">
-        <f>C113 &amp; ", " &amp; C115</f>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>112, 114</v>
       </c>
-      <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -5532,11 +5877,11 @@
         <v>30</v>
       </c>
       <c r="G115" s="9">
-        <f>E115*D115/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I115" s="9" t="b">
@@ -5545,18 +5890,21 @@
       <c r="J115" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K115" s="9" t="s">
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L115" s="9" t="str">
-        <f>C114 &amp; ", " &amp; C116</f>
+      <c r="M115" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>113, 115</v>
       </c>
-      <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -5575,11 +5923,11 @@
         <v>30</v>
       </c>
       <c r="G116" s="9">
-        <f>E116*D116/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I116" s="9" t="b">
@@ -5588,16 +5936,19 @@
       <c r="J116" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9" t="str">
-        <f>C115 &amp; ", " &amp; C117</f>
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>114, 116</v>
       </c>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -5616,11 +5967,11 @@
         <v>30</v>
       </c>
       <c r="G117" s="9">
-        <f>E117*D117/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I117" s="9" t="b">
@@ -5629,16 +5980,19 @@
       <c r="J117" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9" t="str">
-        <f>C116 &amp; ", " &amp; C118</f>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>115, 117</v>
       </c>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -5657,11 +6011,11 @@
         <v>15</v>
       </c>
       <c r="G118" s="9">
-        <f>E118*D118/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I118" s="9" t="b">
@@ -5670,16 +6024,19 @@
       <c r="J118" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9" t="str">
-        <f>C117 &amp; ", " &amp; C119</f>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>116, 118</v>
       </c>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -5698,11 +6055,11 @@
         <v>15</v>
       </c>
       <c r="G119" s="9">
-        <f>E119*D119/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I119" s="9" t="b">
@@ -5711,16 +6068,19 @@
       <c r="J119" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9" t="str">
-        <f>C118 &amp; ", " &amp; C120</f>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>117, 119</v>
       </c>
-      <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -5739,11 +6099,11 @@
         <v>15</v>
       </c>
       <c r="G120" s="9">
-        <f>E120*D120/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I120" s="9" t="b">
@@ -5752,16 +6112,19 @@
       <c r="J120" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9" t="str">
-        <f>C119 &amp; ", " &amp; C121</f>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>118, 120</v>
       </c>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -5780,11 +6143,11 @@
         <v>15</v>
       </c>
       <c r="G121" s="9">
-        <f>E121*D121/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I121" s="9" t="b">
@@ -5793,16 +6156,19 @@
       <c r="J121" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9" t="str">
-        <f>C120 &amp; ", " &amp; C122</f>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>119, 121</v>
       </c>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -5821,11 +6187,11 @@
         <v>15</v>
       </c>
       <c r="G122" s="9">
-        <f>E122*D122/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I122" s="9" t="b">
@@ -5834,16 +6200,19 @@
       <c r="J122" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9" t="str">
-        <f>C121 &amp; ", " &amp; C123</f>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>120, 122</v>
       </c>
-      <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -5862,11 +6231,11 @@
         <v>20</v>
       </c>
       <c r="G123" s="9">
-        <f>E123*D123/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I123" s="9" t="b">
@@ -5875,16 +6244,19 @@
       <c r="J123" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9" t="str">
-        <f>C122 &amp; ", " &amp; C124</f>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>121, 123</v>
       </c>
-      <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -5903,11 +6275,11 @@
         <v>20</v>
       </c>
       <c r="G124" s="9">
-        <f>E124*D124/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I124" s="9" t="b">
@@ -5916,18 +6288,21 @@
       <c r="J124" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K124" s="9" t="s">
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L124" s="9" t="str">
-        <f>C123 &amp; ", " &amp; C125</f>
+      <c r="M124" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>122, 124</v>
       </c>
-      <c r="M124" s="3"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -5946,11 +6321,11 @@
         <v>20</v>
       </c>
       <c r="G125" s="9">
-        <f>E125*D125/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I125" s="9" t="b">
@@ -5959,16 +6334,19 @@
       <c r="J125" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9" t="str">
-        <f>C124 &amp; ", " &amp; C126</f>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>123, 125</v>
       </c>
-      <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -5987,11 +6365,11 @@
         <v>20</v>
       </c>
       <c r="G126" s="9">
-        <f>E126*D126/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I126" s="9" t="b">
@@ -6000,16 +6378,19 @@
       <c r="J126" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9" t="str">
-        <f>C125 &amp; ", " &amp; C127</f>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>124, 126</v>
       </c>
-      <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -6028,11 +6409,11 @@
         <v>20</v>
       </c>
       <c r="G127" s="9">
-        <f>E127*D127/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I127" s="9" t="b">
@@ -6041,16 +6422,19 @@
       <c r="J127" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9" t="str">
-        <f>C126 &amp; ", " &amp; C128</f>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>125, 127</v>
       </c>
-      <c r="M127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -6069,11 +6453,11 @@
         <v>20</v>
       </c>
       <c r="G128" s="9">
-        <f>E128*D128/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H128" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I128" s="9" t="b">
@@ -6082,16 +6466,19 @@
       <c r="J128" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9" t="str">
-        <f>C127 &amp; ", " &amp; C129</f>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>126, 128</v>
       </c>
-      <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -6110,11 +6497,11 @@
         <v>20</v>
       </c>
       <c r="G129" s="9">
-        <f>E129*D129/100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H129" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I129" s="9" t="b">
@@ -6123,16 +6510,19 @@
       <c r="J129" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9" t="str">
-        <f>C128 &amp; ", " &amp; C130</f>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>127, 129</v>
       </c>
-      <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -6151,11 +6541,11 @@
         <v>20</v>
       </c>
       <c r="G130" s="9">
-        <f>E130*D130/100</f>
+        <f t="shared" ref="G130:G154" si="14">E130*D130/100</f>
         <v>0</v>
       </c>
       <c r="H130" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I130" s="9" t="b">
@@ -6164,16 +6554,19 @@
       <c r="J130" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9" t="str">
-        <f>C129 &amp; ", " &amp; C131</f>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>128, 130</v>
       </c>
-      <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Green</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -6192,11 +6585,11 @@
         <v>20</v>
       </c>
       <c r="G131" s="9">
-        <f>E131*D131/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H131" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I131" s="9" t="b">
@@ -6205,16 +6598,19 @@
       <c r="J131" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9" t="str">
-        <f>C130 &amp; ", " &amp; C132</f>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>129, 131</v>
       </c>
-      <c r="M131" s="3"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="str">
-        <f t="shared" ref="A132:A151" si="4">A131</f>
+        <f t="shared" ref="A132:A151" si="15">A131</f>
         <v>Green</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -6233,11 +6629,11 @@
         <v>20</v>
       </c>
       <c r="G132" s="9">
-        <f>E132*D132/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H132" s="9">
-        <f t="shared" ref="H132:H154" si="5">G132+H131</f>
+        <f t="shared" ref="H132:H154" si="16">G132+H131</f>
         <v>0.5</v>
       </c>
       <c r="I132" s="9" t="b">
@@ -6246,16 +6642,19 @@
       <c r="J132" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9" t="str">
-        <f>C131 &amp; ", " &amp; C133</f>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>130, 132</v>
       </c>
-      <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -6274,11 +6673,11 @@
         <v>20</v>
       </c>
       <c r="G133" s="9">
-        <f>E133*D133/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H133" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I133" s="9" t="b">
@@ -6287,18 +6686,21 @@
       <c r="J133" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K133" s="9" t="s">
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L133" s="9" t="str">
-        <f>C132 &amp; ", " &amp; C134</f>
+      <c r="M133" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>131, 133</v>
       </c>
-      <c r="M133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -6317,11 +6719,11 @@
         <v>20</v>
       </c>
       <c r="G134" s="9">
-        <f>E134*D134/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H134" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I134" s="9" t="b">
@@ -6330,16 +6732,19 @@
       <c r="J134" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9" t="str">
-        <f>C133 &amp; ", " &amp; C135</f>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>132, 134</v>
       </c>
-      <c r="M134" s="3"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -6358,11 +6763,11 @@
         <v>20</v>
       </c>
       <c r="G135" s="9">
-        <f>E135*D135/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H135" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I135" s="9" t="b">
@@ -6371,16 +6776,19 @@
       <c r="J135" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9" t="str">
-        <f>C134 &amp; ", " &amp; C136</f>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>133, 135</v>
       </c>
-      <c r="M135" s="3"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -6399,11 +6807,11 @@
         <v>20</v>
       </c>
       <c r="G136" s="9">
-        <f>E136*D136/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H136" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I136" s="9" t="b">
@@ -6412,16 +6820,19 @@
       <c r="J136" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9" t="str">
-        <f>C135 &amp; ", " &amp; C137</f>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>134, 136</v>
       </c>
-      <c r="M136" s="3"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -6440,11 +6851,11 @@
         <v>20</v>
       </c>
       <c r="G137" s="9">
-        <f>E137*D137/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H137" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I137" s="9" t="b">
@@ -6453,16 +6864,19 @@
       <c r="J137" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9" t="str">
-        <f>C136 &amp; ", " &amp; C138</f>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>135, 137</v>
       </c>
-      <c r="M137" s="3"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -6481,11 +6895,11 @@
         <v>20</v>
       </c>
       <c r="G138" s="9">
-        <f>E138*D138/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H138" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I138" s="9" t="b">
@@ -6494,16 +6908,19 @@
       <c r="J138" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9" t="str">
-        <f>C137 &amp; ", " &amp; C139</f>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>136, 138</v>
       </c>
-      <c r="M138" s="3"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -6522,11 +6939,11 @@
         <v>20</v>
       </c>
       <c r="G139" s="9">
-        <f>E139*D139/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H139" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I139" s="9" t="b">
@@ -6535,16 +6952,19 @@
       <c r="J139" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9" t="str">
-        <f>C138 &amp; ", " &amp; C140</f>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>137, 139</v>
       </c>
-      <c r="M139" s="3"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N139" s="3"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -6563,11 +6983,11 @@
         <v>20</v>
       </c>
       <c r="G140" s="9">
-        <f>E140*D140/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H140" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I140" s="9" t="b">
@@ -6576,16 +6996,19 @@
       <c r="J140" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9" t="str">
-        <f>C139 &amp; ", " &amp; C141</f>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>138, 140</v>
       </c>
-      <c r="M140" s="3"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -6604,11 +7027,11 @@
         <v>20</v>
       </c>
       <c r="G141" s="9">
-        <f>E141*D141/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H141" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I141" s="9" t="b">
@@ -6617,16 +7040,19 @@
       <c r="J141" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9" t="str">
-        <f>C140 &amp; ", " &amp; C142</f>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>139, 141</v>
       </c>
-      <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -6645,11 +7071,11 @@
         <v>20</v>
       </c>
       <c r="G142" s="9">
-        <f>E142*D142/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H142" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I142" s="9" t="b">
@@ -6658,18 +7084,21 @@
       <c r="J142" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="9" t="s">
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L142" s="9" t="str">
-        <f>C141 &amp; ", " &amp; C143</f>
+      <c r="M142" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>140, 142</v>
       </c>
-      <c r="M142" s="3"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -6688,11 +7117,11 @@
         <v>20</v>
       </c>
       <c r="G143" s="9">
-        <f>E143*D143/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H143" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I143" s="9" t="b">
@@ -6701,16 +7130,19 @@
       <c r="J143" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9" t="str">
-        <f>C142 &amp; ", " &amp; C144</f>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>141, 143</v>
       </c>
-      <c r="M143" s="3"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -6729,11 +7161,11 @@
         <v>20</v>
       </c>
       <c r="G144" s="9">
-        <f>E144*D144/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H144" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I144" s="9" t="b">
@@ -6742,16 +7174,19 @@
       <c r="J144" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9" t="str">
-        <f>C143 &amp; ", " &amp; C145</f>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>142, 144</v>
       </c>
-      <c r="M144" s="3"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -6770,11 +7205,11 @@
         <v>20</v>
       </c>
       <c r="G145" s="9">
-        <f>E145*D145/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H145" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I145" s="9" t="b">
@@ -6783,16 +7218,19 @@
       <c r="J145" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9" t="str">
-        <f>C144 &amp; ", " &amp; C146</f>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>143, 145</v>
       </c>
-      <c r="M145" s="3"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -6811,11 +7249,11 @@
         <v>20</v>
       </c>
       <c r="G146" s="9">
-        <f>E146*D146/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H146" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I146" s="9" t="b">
@@ -6824,16 +7262,19 @@
       <c r="J146" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9" t="str">
-        <f>C145 &amp; ", " &amp; C147</f>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>144, 146</v>
       </c>
-      <c r="M146" s="3"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -6852,11 +7293,11 @@
         <v>20</v>
       </c>
       <c r="G147" s="9">
-        <f>E147*D147/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H147" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I147" s="9" t="b">
@@ -6865,16 +7306,19 @@
       <c r="J147" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9" t="str">
-        <f>C146 &amp; ", " &amp; C148</f>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>145, 147</v>
       </c>
-      <c r="M147" s="3"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -6893,11 +7337,11 @@
         <v>20</v>
       </c>
       <c r="G148" s="9">
-        <f>E148*D148/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H148" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I148" s="9" t="b">
@@ -6906,16 +7350,19 @@
       <c r="J148" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9" t="str">
-        <f>C147 &amp; ", " &amp; C149</f>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>146, 148</v>
       </c>
-      <c r="M148" s="3"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -6935,11 +7382,11 @@
         <v>20</v>
       </c>
       <c r="G149" s="9">
-        <f>E149*D149/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H149" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I149" s="9" t="b">
@@ -6948,16 +7395,19 @@
       <c r="J149" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9" t="str">
-        <f>C148 &amp; ", " &amp; C150</f>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>147, 149</v>
       </c>
-      <c r="M149" s="3"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B150" s="9" t="s">
@@ -6976,11 +7426,11 @@
         <v>20</v>
       </c>
       <c r="G150" s="9">
-        <f>E150*D150/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H150" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I150" s="9" t="b">
@@ -6989,16 +7439,19 @@
       <c r="J150" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9" t="str">
-        <f>C149 &amp; ", " &amp; C151</f>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>148, 150</v>
       </c>
-      <c r="M150" s="3"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>Green</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -7017,11 +7470,11 @@
         <v>20</v>
       </c>
       <c r="G151" s="9">
-        <f>E151*D151/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H151" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I151" s="9" t="b">
@@ -7030,14 +7483,17 @@
       <c r="J151" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9" t="s">
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M151" s="3"/>
-      <c r="O151" s="6"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N151" s="3"/>
+      <c r="P151" s="6"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>39</v>
       </c>
@@ -7057,11 +7513,11 @@
         <v>30</v>
       </c>
       <c r="G152" s="9">
-        <f>E152*D152/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H152" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I152" s="9" t="b">
@@ -7070,13 +7526,16 @@
       <c r="J152" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9" t="s">
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O152" s="6"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P152" s="6"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>39</v>
       </c>
@@ -7096,11 +7555,11 @@
         <v>30</v>
       </c>
       <c r="G153" s="9">
-        <f>E153*D153/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H153" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I153" s="9" t="b">
@@ -7109,12 +7568,15 @@
       <c r="J153" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9" t="s">
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>39</v>
       </c>
@@ -7134,11 +7596,11 @@
         <v>30</v>
       </c>
       <c r="G154" s="9">
-        <f>E154*D154/100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H154" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="I154" s="9" t="b">
@@ -7147,11 +7609,14 @@
       <c r="J154" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9" t="s">
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/lines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danim\OneDrive\Documents\GitHub\train_system\system_data\lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{448FB28F-EA6D-4A7A-9007-51DBB235B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5FA912-DAD2-4E7B-A0C0-3FA77DDD832D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8FB13A-1793-48A3-9319-4D5B8910075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -611,27 +622,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="7.5234375" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" customWidth="1"/>
+    <col min="4" max="4" width="13.15625" customWidth="1"/>
+    <col min="5" max="5" width="12.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1015625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
-    <col min="12" max="13" width="13.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.47265625" customWidth="1"/>
+    <col min="10" max="10" width="10.3671875" customWidth="1"/>
+    <col min="12" max="13" width="13.7890625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -676,7 +687,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
@@ -721,7 +732,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="9" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -770,7 +781,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="9" t="str">
         <f t="shared" ref="A4:A67" si="2">A3</f>
         <v>Green</v>
@@ -817,7 +828,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -864,7 +875,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -911,7 +922,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -958,7 +969,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1005,7 +1016,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1052,7 +1063,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1101,7 +1112,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1148,7 +1159,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1195,7 +1206,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1241,7 +1252,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1287,7 +1298,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1334,7 +1345,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1381,7 +1392,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1430,7 +1441,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1477,7 +1488,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1524,7 +1535,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1571,7 +1582,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1618,7 +1629,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1665,7 +1676,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1714,7 +1725,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1761,7 +1772,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1808,7 +1819,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1855,7 +1866,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1902,7 +1913,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1949,7 +1960,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1996,7 +2007,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2042,7 +2053,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2088,7 +2099,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2137,7 +2148,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2184,7 +2195,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2231,7 +2242,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2278,7 +2289,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2325,7 +2336,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2372,7 +2383,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -2419,7 +2430,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2466,7 +2477,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2515,7 +2526,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2562,7 +2573,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A42" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2609,7 +2620,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A43" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2656,7 +2667,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A44" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2703,7 +2714,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A45" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2750,7 +2761,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2797,7 +2808,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A47" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2844,7 +2855,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A48" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2891,7 +2902,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A49" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2940,7 +2951,7 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A50" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2987,7 +2998,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A51" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3034,7 +3045,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A52" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3081,7 +3092,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A53" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3128,7 +3139,7 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A54" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3175,7 +3186,7 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A55" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3222,7 +3233,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A56" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3269,7 +3280,7 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A57" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3316,7 +3327,7 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A58" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3365,7 +3376,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A59" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3412,7 +3423,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A60" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3456,7 +3467,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A61" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3503,7 +3514,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A62" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3550,7 +3561,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3597,7 +3608,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A64" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3642,7 +3653,7 @@
       <c r="N64" s="3"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A65" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A66" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3735,7 +3746,7 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A67" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3779,7 +3790,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A68" s="9" t="str">
         <f t="shared" ref="A68:A131" si="8">A67</f>
         <v>Green</v>
@@ -3823,7 +3834,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A69" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3867,7 +3878,7 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A70" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3911,7 +3922,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A71" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3955,7 +3966,7 @@
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A72" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3999,7 +4010,7 @@
       </c>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A73" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4043,7 +4054,7 @@
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A74" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4089,7 +4100,7 @@
       </c>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A75" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4133,7 +4144,7 @@
       </c>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A76" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4177,7 +4188,7 @@
       </c>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A77" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4221,7 +4232,7 @@
       <c r="N77" s="3"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A78" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4267,7 +4278,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A79" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4311,7 +4322,7 @@
       </c>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A80" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4355,7 +4366,7 @@
       </c>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A81" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4399,7 +4410,7 @@
       </c>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A82" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4443,7 +4454,7 @@
       </c>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A83" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4487,7 +4498,7 @@
       </c>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A84" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4531,7 +4542,7 @@
       </c>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A85" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4575,7 +4586,7 @@
       </c>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A86" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4619,7 +4630,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A87" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4663,7 +4674,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A88" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4707,7 +4718,7 @@
       </c>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A89" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4751,7 +4762,7 @@
       </c>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A90" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4795,7 +4806,7 @@
       </c>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A91" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4839,7 +4850,7 @@
       </c>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A92" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4883,7 +4894,7 @@
       </c>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A93" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4927,7 +4938,7 @@
       </c>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A94" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4971,7 +4982,7 @@
       </c>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A95" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5015,7 +5026,7 @@
       </c>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A96" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5059,7 +5070,7 @@
       </c>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A97" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5105,7 +5116,7 @@
       </c>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A98" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5149,7 +5160,7 @@
       </c>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A99" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5193,7 +5204,7 @@
       </c>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A100" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5237,7 +5248,7 @@
       </c>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A101" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5281,7 +5292,7 @@
       <c r="N101" s="3"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A102" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5325,7 +5336,7 @@
       <c r="N102" s="3"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A103" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5369,7 +5380,7 @@
       </c>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A104" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5413,7 +5424,7 @@
       </c>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A105" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5457,7 +5468,7 @@
       </c>
       <c r="N105" s="3"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A106" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5503,7 +5514,7 @@
       </c>
       <c r="N106" s="3"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A107" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5547,7 +5558,7 @@
       </c>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A108" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5591,7 +5602,7 @@
       </c>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A109" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5635,7 +5646,7 @@
       </c>
       <c r="N109" s="3"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A110" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5679,7 +5690,7 @@
       </c>
       <c r="N110" s="3"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A111" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5723,7 +5734,7 @@
       </c>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A112" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5767,7 +5778,7 @@
       </c>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A113" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5811,7 +5822,7 @@
       </c>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A114" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5855,7 +5866,7 @@
       </c>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A115" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5902,7 +5913,7 @@
       </c>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A116" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5946,7 +5957,7 @@
       </c>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A117" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5990,7 +6001,7 @@
       </c>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A118" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6034,7 +6045,7 @@
       </c>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A119" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6078,7 +6089,7 @@
       </c>
       <c r="N119" s="3"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A120" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6122,7 +6133,7 @@
       </c>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A121" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6166,7 +6177,7 @@
       </c>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A122" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6210,7 +6221,7 @@
       </c>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A123" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6254,7 +6265,7 @@
       </c>
       <c r="N123" s="3"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A124" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6300,7 +6311,7 @@
       </c>
       <c r="N124" s="3"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A125" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6344,7 +6355,7 @@
       </c>
       <c r="N125" s="3"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A126" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6388,7 +6399,7 @@
       </c>
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A127" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6432,7 +6443,7 @@
       </c>
       <c r="N127" s="3"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A128" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6476,7 +6487,7 @@
       </c>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A129" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6520,7 +6531,7 @@
       </c>
       <c r="N129" s="3"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A130" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6564,7 +6575,7 @@
       </c>
       <c r="N130" s="3"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A131" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6608,7 +6619,7 @@
       </c>
       <c r="N131" s="3"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A132" s="9" t="str">
         <f t="shared" ref="A132:A151" si="15">A131</f>
         <v>Green</v>
@@ -6652,7 +6663,7 @@
       </c>
       <c r="N132" s="3"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A133" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6698,7 +6709,7 @@
       </c>
       <c r="N133" s="3"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A134" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6742,7 +6753,7 @@
       </c>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A135" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6786,7 +6797,7 @@
       </c>
       <c r="N135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A136" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6830,7 +6841,7 @@
       </c>
       <c r="N136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A137" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6874,7 +6885,7 @@
       </c>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A138" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6918,7 +6929,7 @@
       </c>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A139" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6962,7 +6973,7 @@
       </c>
       <c r="N139" s="3"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A140" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7006,7 +7017,7 @@
       </c>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A141" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7050,7 +7061,7 @@
       </c>
       <c r="N141" s="3"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A142" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7096,7 +7107,7 @@
       </c>
       <c r="N142" s="3"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A143" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7140,7 +7151,7 @@
       </c>
       <c r="N143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A144" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7184,7 +7195,7 @@
       </c>
       <c r="N144" s="3"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A145" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7228,7 +7239,7 @@
       </c>
       <c r="N145" s="3"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A146" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7272,7 +7283,7 @@
       </c>
       <c r="N146" s="3"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A147" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7316,7 +7327,7 @@
       </c>
       <c r="N147" s="3"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A148" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7360,7 +7371,7 @@
       </c>
       <c r="N148" s="3"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A149" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7405,7 +7416,7 @@
       </c>
       <c r="N149" s="3"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A150" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7449,7 +7460,7 @@
       </c>
       <c r="N150" s="3"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A151" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7493,7 +7504,7 @@
       <c r="N151" s="3"/>
       <c r="P151" s="6"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="9" t="s">
         <v>39</v>
       </c>
@@ -7535,7 +7546,7 @@
       </c>
       <c r="P152" s="6"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="9" t="s">
         <v>39</v>
       </c>
@@ -7576,7 +7587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="9" t="s">
         <v>39</v>
       </c>

--- a/system_data/lines/green_line.xlsx
+++ b/system_data/lines/green_line.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0c4a204f81830ef/Pitt/2024_Summer_Term/ECE 1140/Project/train_system/system_data/lines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/ajb321_pitt_edu/Documents/Documents/Trains/train_system/system_data/lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{448FB28F-EA6D-4A7A-9007-51DBB235B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5FA912-DAD2-4E7B-A0C0-3FA77DDD832D}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -611,27 +622,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.06640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
-    <col min="12" max="13" width="13.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.46484375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="13.796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -676,7 +687,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
@@ -721,7 +732,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -770,7 +781,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="str">
         <f t="shared" ref="A4:A67" si="2">A3</f>
         <v>Green</v>
@@ -817,7 +828,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -864,7 +875,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -911,7 +922,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -958,7 +969,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1005,7 +1016,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1052,7 +1063,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1101,7 +1112,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1148,7 +1159,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1195,7 +1206,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1241,7 +1252,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1287,7 +1298,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1334,7 +1345,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1381,7 +1392,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1430,7 +1441,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1477,7 +1488,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1524,7 +1535,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1571,7 +1582,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1618,7 +1629,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1665,7 +1676,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1714,7 +1725,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1761,7 +1772,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1808,7 +1819,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1855,7 +1866,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1902,7 +1913,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1949,7 +1960,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1996,7 +2007,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2042,7 +2053,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2088,7 +2099,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2137,7 +2148,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2184,7 +2195,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2231,7 +2242,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2278,7 +2289,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2325,7 +2336,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2372,7 +2383,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A38" s="9" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -2419,7 +2430,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2466,7 +2477,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2515,7 +2526,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2562,7 +2573,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A42" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2609,7 +2620,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A43" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2656,7 +2667,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A44" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2703,7 +2714,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A45" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2750,7 +2761,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2797,7 +2808,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A47" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2844,7 +2855,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A48" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2891,7 +2902,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A49" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2940,7 +2951,7 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2987,7 +2998,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A51" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3034,7 +3045,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A52" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3081,7 +3092,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A53" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3128,7 +3139,7 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A54" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3175,7 +3186,7 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A55" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3222,7 +3233,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A56" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3269,7 +3280,7 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A57" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3316,7 +3327,7 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A58" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3365,7 +3376,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A59" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3412,7 +3423,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A60" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3456,7 +3467,7 @@
       </c>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A61" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3503,7 +3514,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A62" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3550,7 +3561,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3597,7 +3608,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A64" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3642,7 +3653,7 @@
       <c r="N64" s="3"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A65" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A66" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3735,7 +3746,7 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A67" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3779,7 +3790,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A68" s="9" t="str">
         <f t="shared" ref="A68:A131" si="8">A67</f>
         <v>Green</v>
@@ -3823,7 +3834,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A69" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3867,7 +3878,7 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A70" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3911,7 +3922,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A71" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3955,7 +3966,7 @@
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A72" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -3999,7 +4010,7 @@
       </c>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A73" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4043,7 +4054,7 @@
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A74" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4089,7 +4100,7 @@
       </c>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A75" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4133,7 +4144,7 @@
       </c>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A76" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4177,7 +4188,7 @@
       </c>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A77" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4221,7 +4232,7 @@
       <c r="N77" s="3"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A78" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4267,7 +4278,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A79" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4311,7 +4322,7 @@
       </c>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A80" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4355,7 +4366,7 @@
       </c>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A81" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4399,7 +4410,7 @@
       </c>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A82" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4443,7 +4454,7 @@
       </c>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4487,7 +4498,7 @@
       </c>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A84" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4531,7 +4542,7 @@
       </c>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A85" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4575,7 +4586,7 @@
       </c>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A86" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4619,7 +4630,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A87" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4663,7 +4674,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A88" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4707,7 +4718,7 @@
       </c>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A89" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4751,7 +4762,7 @@
       </c>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A90" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4795,7 +4806,7 @@
       </c>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A91" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4839,7 +4850,7 @@
       </c>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A92" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4883,7 +4894,7 @@
       </c>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A93" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4927,7 +4938,7 @@
       </c>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A94" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -4971,7 +4982,7 @@
       </c>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A95" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5015,7 +5026,7 @@
       </c>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A96" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5059,7 +5070,7 @@
       </c>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A97" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5105,7 +5116,7 @@
       </c>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A98" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5149,7 +5160,7 @@
       </c>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A99" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5193,7 +5204,7 @@
       </c>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A100" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5237,7 +5248,7 @@
       </c>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A101" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5281,7 +5292,7 @@
       <c r="N101" s="3"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A102" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5325,7 +5336,7 @@
       <c r="N102" s="3"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A103" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5369,7 +5380,7 @@
       </c>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A104" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5413,7 +5424,7 @@
       </c>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A105" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5457,7 +5468,7 @@
       </c>
       <c r="N105" s="3"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A106" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5503,7 +5514,7 @@
       </c>
       <c r="N106" s="3"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A107" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5547,7 +5558,7 @@
       </c>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A108" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5591,7 +5602,7 @@
       </c>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A109" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5635,7 +5646,7 @@
       </c>
       <c r="N109" s="3"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A110" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5679,7 +5690,7 @@
       </c>
       <c r="N110" s="3"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A111" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5723,7 +5734,7 @@
       </c>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A112" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5767,7 +5778,7 @@
       </c>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A113" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5811,7 +5822,7 @@
       </c>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A114" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5855,7 +5866,7 @@
       </c>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A115" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5902,7 +5913,7 @@
       </c>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A116" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5946,7 +5957,7 @@
       </c>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A117" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -5990,7 +6001,7 @@
       </c>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A118" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6034,7 +6045,7 @@
       </c>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A119" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6078,7 +6089,7 @@
       </c>
       <c r="N119" s="3"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A120" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6122,7 +6133,7 @@
       </c>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A121" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6166,7 +6177,7 @@
       </c>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A122" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6210,7 +6221,7 @@
       </c>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A123" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6254,7 +6265,7 @@
       </c>
       <c r="N123" s="3"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A124" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6300,7 +6311,7 @@
       </c>
       <c r="N124" s="3"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A125" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6344,7 +6355,7 @@
       </c>
       <c r="N125" s="3"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A126" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6388,7 +6399,7 @@
       </c>
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A127" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6432,7 +6443,7 @@
       </c>
       <c r="N127" s="3"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A128" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6476,7 +6487,7 @@
       </c>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A129" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6520,7 +6531,7 @@
       </c>
       <c r="N129" s="3"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A130" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6564,7 +6575,7 @@
       </c>
       <c r="N130" s="3"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A131" s="9" t="str">
         <f t="shared" si="8"/>
         <v>Green</v>
@@ -6608,7 +6619,7 @@
       </c>
       <c r="N131" s="3"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A132" s="9" t="str">
         <f t="shared" ref="A132:A151" si="15">A131</f>
         <v>Green</v>
@@ -6652,7 +6663,7 @@
       </c>
       <c r="N132" s="3"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A133" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6698,7 +6709,7 @@
       </c>
       <c r="N133" s="3"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A134" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6742,7 +6753,7 @@
       </c>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A135" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6786,7 +6797,7 @@
       </c>
       <c r="N135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A136" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6830,7 +6841,7 @@
       </c>
       <c r="N136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A137" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6874,7 +6885,7 @@
       </c>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A138" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6918,7 +6929,7 @@
       </c>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A139" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -6962,7 +6973,7 @@
       </c>
       <c r="N139" s="3"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A140" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7006,7 +7017,7 @@
       </c>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A141" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7050,7 +7061,7 @@
       </c>
       <c r="N141" s="3"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A142" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7096,7 +7107,7 @@
       </c>
       <c r="N142" s="3"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A143" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7140,7 +7151,7 @@
       </c>
       <c r="N143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A144" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7184,7 +7195,7 @@
       </c>
       <c r="N144" s="3"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A145" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7228,7 +7239,7 @@
       </c>
       <c r="N145" s="3"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A146" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7272,7 +7283,7 @@
       </c>
       <c r="N146" s="3"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A147" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7316,7 +7327,7 @@
       </c>
       <c r="N147" s="3"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A148" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7360,7 +7371,7 @@
       </c>
       <c r="N148" s="3"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A149" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7405,7 +7416,7 @@
       </c>
       <c r="N149" s="3"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A150" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7449,7 +7460,7 @@
       </c>
       <c r="N150" s="3"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A151" s="9" t="str">
         <f t="shared" si="15"/>
         <v>Green</v>
@@ -7493,7 +7504,7 @@
       <c r="N151" s="3"/>
       <c r="P151" s="6"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A152" s="9" t="s">
         <v>39</v>
       </c>
@@ -7535,7 +7546,7 @@
       </c>
       <c r="P152" s="6"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A153" s="9" t="s">
         <v>39</v>
       </c>
@@ -7576,7 +7587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A154" s="9" t="s">
         <v>39</v>
       </c>
